--- a/public/excel/visualize/Visualize-all-the-city-points-of-Thailand’s-neighboring-countries-in-2018.xlsx
+++ b/public/excel/visualize/Visualize-all-the-city-points-of-Thailand’s-neighboring-countries-in-2018.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="50 closest Bangkok" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Thailand’s neighboring countrie" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -47,60 +47,6 @@
   </si>
   <si>
     <t>GEOM</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Bayan Lepas</t>
-  </si>
-  <si>
-    <t>Upper middle income</t>
-  </si>
-  <si>
-    <t>Western Pacific (LMIC)</t>
-  </si>
-  <si>
-    <t>15-&lt;25</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":100.29,"y":5.32101,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Kuantan</t>
-  </si>
-  <si>
-    <t>10-&lt;15</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":110.344,"y":1.53098,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Kuching</t>
-  </si>
-  <si>
-    <t>Petaling Jaya</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":101.608,"y":3.10709,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Senai</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":103.656,"y":1.62029,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
-  </si>
-  <si>
-    <t>Tanah Rata</t>
-  </si>
-  <si>
-    <t>{"srid":4326,"version":1,"points":[{"x":101.379,"y":4.47385,"z":null,"m":null}],"figures":[{"attribute":1,"pointOffset":0}],"shapes":[{"parentOffset":-1,"figureOffset":0,"type":1}],"segments":[]}</t>
   </si>
 </sst>
 </file>
@@ -481,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="12" width="20" customWidth="1"/>
@@ -525,234 +471,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>2014</v>
-      </c>
-      <c r="D2">
-        <v>17.83262737</v>
-      </c>
-      <c r="E2">
-        <v>5.321008205</v>
-      </c>
-      <c r="F2">
-        <v>100.2901382</v>
-      </c>
-      <c r="G2">
-        <v>99694</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>2014</v>
-      </c>
-      <c r="D3">
-        <v>14.35566014</v>
-      </c>
-      <c r="E3">
-        <v>1.530976057</v>
-      </c>
-      <c r="F3">
-        <v>110.344223</v>
-      </c>
-      <c r="G3">
-        <v>440040</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>2014</v>
-      </c>
-      <c r="D4">
-        <v>13.7615319</v>
-      </c>
-      <c r="E4">
-        <v>1.530976057</v>
-      </c>
-      <c r="F4">
-        <v>110.344223</v>
-      </c>
-      <c r="G4">
-        <v>559999</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>2014</v>
-      </c>
-      <c r="D5">
-        <v>24.87085194</v>
-      </c>
-      <c r="E5">
-        <v>3.107094049</v>
-      </c>
-      <c r="F5">
-        <v>101.6082535</v>
-      </c>
-      <c r="G5">
-        <v>432619</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>2014</v>
-      </c>
-      <c r="D6">
-        <v>15.97297672</v>
-      </c>
-      <c r="E6">
-        <v>1.620286942</v>
-      </c>
-      <c r="F6">
-        <v>103.6563339</v>
-      </c>
-      <c r="G6">
-        <v>46880</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>2014</v>
-      </c>
-      <c r="D7">
-        <v>10.3079786</v>
-      </c>
-      <c r="E7">
-        <v>4.473849773</v>
-      </c>
-      <c r="F7">
-        <v>101.3785706</v>
-      </c>
-      <c r="G7">
-        <v>1000</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
